--- a/Code/Results/Cases/Case_1_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2536608351646663</v>
+        <v>0.08817155729215642</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04930425796412408</v>
+        <v>0.02271376096607725</v>
       </c>
       <c r="E2">
-        <v>0.2573175221228823</v>
+        <v>0.1441052394679616</v>
       </c>
       <c r="F2">
-        <v>0.4957179154373392</v>
+        <v>0.6313750462135914</v>
       </c>
       <c r="G2">
-        <v>0.000789422877859772</v>
+        <v>0.002411527378197862</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2146499693905639</v>
+        <v>0.4759696514830423</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.922441687699177</v>
+        <v>0.588029134313075</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.788425267513766</v>
+        <v>0.273934438043284</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.391513783552881</v>
+        <v>2.120597587544637</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2210641691162039</v>
+        <v>0.07770287929778874</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0443893648867757</v>
+        <v>0.02101260603748045</v>
       </c>
       <c r="E3">
-        <v>0.2251869503274762</v>
+        <v>0.1367952155266465</v>
       </c>
       <c r="F3">
-        <v>0.4595151145723335</v>
+        <v>0.6280256792361527</v>
       </c>
       <c r="G3">
-        <v>0.0007935329447339195</v>
+        <v>0.002414205736781145</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2311969706949615</v>
+        <v>0.4840765391992443</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.685895748188358</v>
+        <v>0.51321165650495</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6826329383512402</v>
+        <v>0.2436039007042794</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.320097996525305</v>
+        <v>2.123448152316826</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2010400894893252</v>
+        <v>0.07126632103182828</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04136322452084329</v>
+        <v>0.01996057790312733</v>
       </c>
       <c r="E4">
-        <v>0.2059824446334559</v>
+        <v>0.1324338438618895</v>
       </c>
       <c r="F4">
-        <v>0.4384350246725504</v>
+        <v>0.6264482697331246</v>
       </c>
       <c r="G4">
-        <v>0.0007961367955828759</v>
+        <v>0.002415937941384918</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2419596426341153</v>
+        <v>0.4893424908799058</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.540702653644502</v>
+        <v>0.4670949846998553</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6181337657327717</v>
+        <v>0.2250273761360688</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.279990400181589</v>
+        <v>2.126785601652074</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1928757543786901</v>
+        <v>0.06864137448025076</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04012770709420721</v>
+        <v>0.01953000646658865</v>
       </c>
       <c r="E5">
-        <v>0.1982749778348634</v>
+        <v>0.1306882255653434</v>
       </c>
       <c r="F5">
-        <v>0.4301148853651284</v>
+        <v>0.6259257629249007</v>
       </c>
       <c r="G5">
-        <v>0.0007972185012680424</v>
+        <v>0.00241666594385587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2464926572913502</v>
+        <v>0.4915608597359049</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.481525407243936</v>
+        <v>0.4482581247519306</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5919457422589431</v>
+        <v>0.2174689952313003</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.264530090789378</v>
+        <v>2.128544068496581</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1915197550550829</v>
+        <v>0.06820538949649801</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03992240251041324</v>
+        <v>0.01945839879530098</v>
       </c>
       <c r="E6">
-        <v>0.1970019471759343</v>
+        <v>0.1304002724706308</v>
       </c>
       <c r="F6">
-        <v>0.4287491235392551</v>
+        <v>0.6258462617318372</v>
       </c>
       <c r="G6">
-        <v>0.0007973993750917704</v>
+        <v>0.002416788165727447</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2472541220886151</v>
+        <v>0.4919335928151911</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.471697866590944</v>
+        <v>0.4451276520024692</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5876024952238126</v>
+        <v>0.2162146387627146</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.262014690396342</v>
+        <v>2.128860104729256</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2009300025427052</v>
+        <v>0.07123092789970542</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04134657167432465</v>
+        <v>0.01995477856575434</v>
       </c>
       <c r="E7">
-        <v>0.205878035980966</v>
+        <v>0.1324101739341685</v>
       </c>
       <c r="F7">
-        <v>0.4383217463898603</v>
+        <v>0.6264407361684903</v>
       </c>
       <c r="G7">
-        <v>0.0007961512998244512</v>
+        <v>0.002415947669691276</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2420201863973448</v>
+        <v>0.4893721152835617</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.539904636272439</v>
+        <v>0.4668411209017052</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6177802210502534</v>
+        <v>0.2249253937788112</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.279778391524331</v>
+        <v>2.126807704638878</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2424222732755226</v>
+        <v>0.08456389082384419</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04761119288799875</v>
+        <v>0.02212877788139167</v>
       </c>
       <c r="E8">
-        <v>0.24612198604882</v>
+        <v>0.1415582214045372</v>
       </c>
       <c r="F8">
-        <v>0.4829852548201643</v>
+        <v>0.6301206345791712</v>
       </c>
       <c r="G8">
-        <v>0.0007908236412581309</v>
+        <v>0.002412432718377707</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2202275510170564</v>
+        <v>0.4787050474365149</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.840857285515625</v>
+        <v>0.5622696353636059</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7518411147830832</v>
+        <v>0.2634667971407225</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.366077614557781</v>
+        <v>2.121250623972827</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3238108132641173</v>
+        <v>0.1106327634455226</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05984177128274837</v>
+        <v>0.02633136336909558</v>
       </c>
       <c r="E9">
-        <v>0.3298377183822225</v>
+        <v>0.1605181734519405</v>
       </c>
       <c r="F9">
-        <v>0.5805809183693995</v>
+        <v>0.6411478772494519</v>
       </c>
       <c r="G9">
-        <v>0.0007809919720988607</v>
+        <v>0.002406232564677354</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1824833722075194</v>
+        <v>0.4600759883607717</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.43248061402204</v>
+        <v>0.747957071427237</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.019306064554826</v>
+        <v>0.3394197568221529</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.567746738950319</v>
+        <v>2.122980621899529</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3837733507591281</v>
+        <v>0.1297302710367489</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06881370514637553</v>
+        <v>0.02938097025094777</v>
       </c>
       <c r="E10">
-        <v>0.3952366735681849</v>
+        <v>0.1750895851150318</v>
       </c>
       <c r="F10">
-        <v>0.6597248510227161</v>
+        <v>0.6515879340774262</v>
       </c>
       <c r="G10">
-        <v>0.0007741129425774658</v>
+        <v>0.00240209528515251</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1580999114398089</v>
+        <v>0.4477863995722426</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.869699629126671</v>
+        <v>0.8834697191408907</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.220026003379544</v>
+        <v>0.3954613807714509</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.739781080210889</v>
+        <v>2.132000677658738</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4111250875242831</v>
+        <v>0.1384045801986815</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07289702170496781</v>
+        <v>0.03075984829850142</v>
       </c>
       <c r="E11">
-        <v>0.4260708342896038</v>
+        <v>0.1818620485996689</v>
       </c>
       <c r="F11">
-        <v>0.6976671675473796</v>
+        <v>0.6568484939169252</v>
       </c>
       <c r="G11">
-        <v>0.0007710508304848134</v>
+        <v>0.002400302975595292</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1478062661197423</v>
+        <v>0.4424992919968833</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.069563901263336</v>
+        <v>0.9449145808511332</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.312602006049801</v>
+        <v>0.4210108649351412</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.824214497179042</v>
+        <v>2.137798004057288</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4214964125169587</v>
+        <v>0.1416872338453317</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07444396373094264</v>
+        <v>0.03128076141008762</v>
       </c>
       <c r="E12">
-        <v>0.4379245337004036</v>
+        <v>0.1844476015598033</v>
       </c>
       <c r="F12">
-        <v>0.7123429262370706</v>
+        <v>0.6589142881366854</v>
       </c>
       <c r="G12">
-        <v>0.0007699002920588717</v>
+        <v>0.002399637112894718</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1440296995071009</v>
+        <v>0.4405408886562165</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.145423322660633</v>
+        <v>0.9681525774278725</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.347871970420172</v>
+        <v>0.4306939235938074</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.857164716318636</v>
+        <v>2.140237734796102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4192620955570163</v>
+        <v>0.1409803532945659</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07411076514015491</v>
+        <v>0.03116862898564676</v>
       </c>
       <c r="E13">
-        <v>0.4353633685986225</v>
+        <v>0.1838898194168763</v>
       </c>
       <c r="F13">
-        <v>0.7091680622415311</v>
+        <v>0.6584660997578453</v>
       </c>
       <c r="G13">
-        <v>0.0007701476908751196</v>
+        <v>0.002399779948059126</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1448375409045681</v>
+        <v>0.4409607207706907</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.129077249652397</v>
+        <v>0.9631492020990322</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.340265933139449</v>
+        <v>0.4286081469615084</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.850023338992656</v>
+        <v>2.139701412158132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4119780471160084</v>
+        <v>0.1386746897819364</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07302427353290142</v>
+        <v>0.03080272911634552</v>
       </c>
       <c r="E14">
-        <v>0.4270423575080216</v>
+        <v>0.182074341751175</v>
       </c>
       <c r="F14">
-        <v>0.6988682075705128</v>
+        <v>0.6570169691256211</v>
       </c>
       <c r="G14">
-        <v>0.0007709559981996912</v>
+        <v>0.002400247937682515</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1474930930086842</v>
+        <v>0.4423372965784278</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.075801176498857</v>
+        <v>0.9468269885616394</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.315499220991413</v>
+        <v>0.4218073352497385</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.826905211058175</v>
+        <v>2.137993819243661</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4075182527249268</v>
+        <v>0.1372621220041879</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0723588669298465</v>
+        <v>0.03057844276850119</v>
       </c>
       <c r="E15">
-        <v>0.4219692856636428</v>
+        <v>0.1809650482888046</v>
       </c>
       <c r="F15">
-        <v>0.6926002363565686</v>
+        <v>0.6561389432701503</v>
       </c>
       <c r="G15">
-        <v>0.0007714522640534557</v>
+        <v>0.00240053626584546</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1491357104248614</v>
+        <v>0.4431861833156567</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.043191961459002</v>
+        <v>0.9368252458667428</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.300357663988663</v>
+        <v>0.4176426863217699</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.812874714465352</v>
+        <v>2.136979722432329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3819876091139491</v>
+        <v>0.1291630996721125</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06854692317293853</v>
+        <v>0.02929068568764137</v>
       </c>
       <c r="E16">
-        <v>0.3932452014837153</v>
+        <v>0.1746499075119274</v>
       </c>
       <c r="F16">
-        <v>0.6572866785654696</v>
+        <v>0.6512544509641884</v>
       </c>
       <c r="G16">
-        <v>0.0007743143568826722</v>
+        <v>0.002402214217623121</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1587892462653198</v>
+        <v>0.4481380372772374</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.856660536132495</v>
+        <v>0.8794500319102951</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.214004051616968</v>
+        <v>0.3937927851972916</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.734394865193053</v>
+        <v>2.131655966419544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3663465958604348</v>
+        <v>0.1241910668260857</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06620918886086713</v>
+        <v>0.02849851493554212</v>
       </c>
       <c r="E17">
-        <v>0.3759162738243589</v>
+        <v>0.170812818313351</v>
       </c>
       <c r="F17">
-        <v>0.6361395511770382</v>
+        <v>0.6483890830760259</v>
       </c>
       <c r="G17">
-        <v>0.000776086923751381</v>
+        <v>0.002403266532606303</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.164920441174031</v>
+        <v>0.4512536183944258</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.742502586232234</v>
+        <v>0.8442001213927597</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.161374869391672</v>
+        <v>0.3791759448198064</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.68789264199205</v>
+        <v>2.128824477104502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3573571087712821</v>
+        <v>0.1213300513082061</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0648647423497124</v>
+        <v>0.02804209006218628</v>
       </c>
       <c r="E18">
-        <v>0.3660497438704269</v>
+        <v>0.168619349554227</v>
       </c>
       <c r="F18">
-        <v>0.6241569585621534</v>
+        <v>0.6467891153650385</v>
       </c>
       <c r="G18">
-        <v>0.0007771128232599949</v>
+        <v>0.00240388024863609</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1685216815609962</v>
+        <v>0.4530741798711126</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.676931058321514</v>
+        <v>0.8239064907536715</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.131221234707382</v>
+        <v>0.3707739839660746</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.661721174272458</v>
+        <v>2.127355283998412</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3543145018253426</v>
+        <v>0.1203611552810173</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06440955113574631</v>
+        <v>0.02788741780405957</v>
       </c>
       <c r="E19">
-        <v>0.3627257594967901</v>
+        <v>0.167878992809726</v>
       </c>
       <c r="F19">
-        <v>0.6201300447955447</v>
+        <v>0.646255651475073</v>
       </c>
       <c r="G19">
-        <v>0.0007774612873965359</v>
+        <v>0.002404089495800446</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1697536428701056</v>
+        <v>0.4536954941147187</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.654743937536466</v>
+        <v>0.8170322154291227</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.121030969386879</v>
+        <v>0.3679301279811895</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.652956183394934</v>
+        <v>2.126885193798131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3680108818799255</v>
+        <v>0.1247204774559663</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0664580256981111</v>
+        <v>0.02858292475976043</v>
       </c>
       <c r="E20">
-        <v>0.3777504045897118</v>
+        <v>0.1712198813432479</v>
       </c>
       <c r="F20">
-        <v>0.6383717973301515</v>
+        <v>0.6486891250426368</v>
       </c>
       <c r="G20">
-        <v>0.0007758975766483656</v>
+        <v>0.002403153637569476</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1642599835162404</v>
+        <v>0.4509190029501848</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.75464542539126</v>
+        <v>0.8479544890654154</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.166964980678316</v>
+        <v>0.3807313882120411</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.692782709499596</v>
+        <v>2.129109390344524</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4141171477772616</v>
+        <v>0.1393519782580199</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07334338066565493</v>
+        <v>0.03091023661444581</v>
       </c>
       <c r="E21">
-        <v>0.4294814413924044</v>
+        <v>0.1826070202347481</v>
       </c>
       <c r="F21">
-        <v>0.7018849278720154</v>
+        <v>0.6574406111502498</v>
       </c>
       <c r="G21">
-        <v>0.0007707183394186336</v>
+        <v>0.002400110129600129</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1467097430388593</v>
+        <v>0.4419317760842079</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.091444598268993</v>
+        <v>0.9516220361257126</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.322767749564704</v>
+        <v>0.4238046808234657</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.833668298876603</v>
+        <v>2.138488741071143</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4443324080357058</v>
+        <v>0.148902060151741</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07784752657764216</v>
+        <v>0.03242403933091964</v>
       </c>
       <c r="E22">
-        <v>0.4643366228825982</v>
+        <v>0.1901715226250289</v>
       </c>
       <c r="F22">
-        <v>0.7452038415519553</v>
+        <v>0.663590088656477</v>
       </c>
       <c r="G22">
-        <v>0.0007673856306253083</v>
+        <v>0.002398195869796474</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1359507370020969</v>
+        <v>0.4363129084294517</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.3126020741866</v>
+        <v>1.019200385136571</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.425854504205446</v>
+        <v>0.4520023308373311</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.931487417645343</v>
+        <v>2.146043664732616</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4281973471395304</v>
+        <v>0.1438062114484353</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07544305582978694</v>
+        <v>0.0316167656452393</v>
       </c>
       <c r="E23">
-        <v>0.4456303747605972</v>
+        <v>0.1861229171435212</v>
       </c>
       <c r="F23">
-        <v>0.7219079733011569</v>
+        <v>0.6602685952273788</v>
       </c>
       <c r="G23">
-        <v>0.0007691598079213427</v>
+        <v>0.002399210717768048</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1416256557807998</v>
+        <v>0.43928846654988</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.194458465705821</v>
+        <v>0.9831488347811899</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.370708767603375</v>
+        <v>0.4369484385413074</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.878722642878529</v>
+        <v>2.141880808644743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3672584498685296</v>
+        <v>0.1244811387674645</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06634552800134941</v>
+        <v>0.02854476617643087</v>
       </c>
       <c r="E24">
-        <v>0.3769208963459718</v>
+        <v>0.171035809157317</v>
       </c>
       <c r="F24">
-        <v>0.6373620553816579</v>
+        <v>0.6485533285277256</v>
       </c>
       <c r="G24">
-        <v>0.000775983159167378</v>
+        <v>0.002403204650279531</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1645583391503518</v>
+        <v>0.4510701911039945</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.74915546544139</v>
+        <v>0.8462572265465838</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.164437371049658</v>
+        <v>0.3800281677251931</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.690570162150777</v>
+        <v>2.128980086880517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3017755761062233</v>
+        <v>0.1035895559161162</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0565370037374322</v>
+        <v>0.02520105454286181</v>
       </c>
       <c r="E25">
-        <v>0.3065816086855264</v>
+        <v>0.1552777409922541</v>
       </c>
       <c r="F25">
-        <v>0.5529746484525191</v>
+        <v>0.6377551639616712</v>
       </c>
       <c r="G25">
-        <v>0.0007835888628377512</v>
+        <v>0.002407836161884142</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1921295698881389</v>
+        <v>0.4648704089368731</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.272110990633308</v>
+        <v>0.6978817435965254</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9463198526626186</v>
+        <v>0.3188313266407121</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.509312675525138</v>
+        <v>2.121155482261599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08817155729215642</v>
+        <v>0.2536608351649079</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02271376096607725</v>
+        <v>0.0493042579640246</v>
       </c>
       <c r="E2">
-        <v>0.1441052394679616</v>
+        <v>0.2573175221228681</v>
       </c>
       <c r="F2">
-        <v>0.6313750462135914</v>
+        <v>0.4957179154373534</v>
       </c>
       <c r="G2">
-        <v>0.002411527378197862</v>
+        <v>0.0007894228777670769</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4759696514830423</v>
+        <v>0.214649969390563</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.588029134313075</v>
+        <v>1.922441687699148</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.273934438043284</v>
+        <v>0.7884252675137517</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.120597587544637</v>
+        <v>1.391513783552767</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07770287929778874</v>
+        <v>0.2210641691164454</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02101260603748045</v>
+        <v>0.04438936488688228</v>
       </c>
       <c r="E3">
-        <v>0.1367952155266465</v>
+        <v>0.2251869503275046</v>
       </c>
       <c r="F3">
-        <v>0.6280256792361527</v>
+        <v>0.4595151145723335</v>
       </c>
       <c r="G3">
-        <v>0.002414205736781145</v>
+        <v>0.0007935329448328636</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4840765391992443</v>
+        <v>0.2311969706949597</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.51321165650495</v>
+        <v>1.685895748188358</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2436039007042794</v>
+        <v>0.682632938351226</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.123448152316826</v>
+        <v>1.320097996525277</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07126632103182828</v>
+        <v>0.2010400894893394</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01996057790312733</v>
+        <v>0.04136322452100671</v>
       </c>
       <c r="E4">
-        <v>0.1324338438618895</v>
+        <v>0.2059824446334844</v>
       </c>
       <c r="F4">
-        <v>0.6264482697331246</v>
+        <v>0.4384350246725646</v>
       </c>
       <c r="G4">
-        <v>0.002415937941384918</v>
+        <v>0.0007961367955636135</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4893424908799058</v>
+        <v>0.2419596426341011</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4670949846998553</v>
+        <v>1.54070265364453</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2250273761360688</v>
+        <v>0.6181337657327788</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.126785601652074</v>
+        <v>1.279990400181561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06864137448025076</v>
+        <v>0.1928757543785622</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01953000646658865</v>
+        <v>0.04012770709436353</v>
       </c>
       <c r="E5">
-        <v>0.1306882255653434</v>
+        <v>0.1982749778348776</v>
       </c>
       <c r="F5">
-        <v>0.6259257629249007</v>
+        <v>0.4301148853651213</v>
       </c>
       <c r="G5">
-        <v>0.00241666594385587</v>
+        <v>0.0007972185012487245</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4915608597359049</v>
+        <v>0.2464926572913457</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4482581247519306</v>
+        <v>1.481525407243851</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2174689952313003</v>
+        <v>0.5919457422589502</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.128544068496581</v>
+        <v>1.26453009078935</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06820538949649801</v>
+        <v>0.1915197550550687</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01945839879530098</v>
+        <v>0.03992240251044166</v>
       </c>
       <c r="E6">
-        <v>0.1304002724706308</v>
+        <v>0.1970019471759343</v>
       </c>
       <c r="F6">
-        <v>0.6258462617318372</v>
+        <v>0.4287491235392764</v>
       </c>
       <c r="G6">
-        <v>0.002416788165727447</v>
+        <v>0.0007973993751101162</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4919335928151911</v>
+        <v>0.2472541220886271</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4451276520024692</v>
+        <v>1.471697866591001</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2162146387627146</v>
+        <v>0.5876024952238268</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.128860104729256</v>
+        <v>1.262014690396256</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07123092789970542</v>
+        <v>0.200930002542691</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01995477856575434</v>
+        <v>0.04134657167420386</v>
       </c>
       <c r="E7">
-        <v>0.1324101739341685</v>
+        <v>0.2058780359809518</v>
       </c>
       <c r="F7">
-        <v>0.6264407361684903</v>
+        <v>0.4383217463898319</v>
       </c>
       <c r="G7">
-        <v>0.002415947669691276</v>
+        <v>0.0007961512998631426</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4893721152835617</v>
+        <v>0.2420201863973586</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4668411209017052</v>
+        <v>1.539904636272496</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2249253937788112</v>
+        <v>0.6177802210502605</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.126807704638878</v>
+        <v>1.27977839152436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08456389082384419</v>
+        <v>0.2424222732755226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02212877788139167</v>
+        <v>0.04761119288801297</v>
       </c>
       <c r="E8">
-        <v>0.1415582214045372</v>
+        <v>0.24612198604882</v>
       </c>
       <c r="F8">
-        <v>0.6301206345791712</v>
+        <v>0.4829852548201714</v>
       </c>
       <c r="G8">
-        <v>0.002412432718377707</v>
+        <v>0.000790823641317208</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4787050474365149</v>
+        <v>0.2202275510170493</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5622696353636059</v>
+        <v>1.840857285515767</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2634667971407225</v>
+        <v>0.7518411147830832</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.121250623972827</v>
+        <v>1.366077614557781</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1106327634455226</v>
+        <v>0.3238108132641315</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02633136336909558</v>
+        <v>0.05984177128287627</v>
       </c>
       <c r="E9">
-        <v>0.1605181734519405</v>
+        <v>0.3298377183822154</v>
       </c>
       <c r="F9">
-        <v>0.6411478772494519</v>
+        <v>0.5805809183693853</v>
       </c>
       <c r="G9">
-        <v>0.002406232564677354</v>
+        <v>0.0007809919720707165</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4600759883607717</v>
+        <v>0.1824833722075025</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.747957071427237</v>
+        <v>2.432480614022182</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3394197568221529</v>
+        <v>1.019306064554819</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.122980621899529</v>
+        <v>1.567746738950376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1297302710367489</v>
+        <v>0.3837733507591565</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02938097025094777</v>
+        <v>0.06881370514632579</v>
       </c>
       <c r="E10">
-        <v>0.1750895851150318</v>
+        <v>0.3952366735681849</v>
       </c>
       <c r="F10">
-        <v>0.6515879340774262</v>
+        <v>0.6597248510227161</v>
       </c>
       <c r="G10">
-        <v>0.00240209528515251</v>
+        <v>0.0007741129425784313</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4477863995722426</v>
+        <v>0.1580999114397912</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8834697191408907</v>
+        <v>2.869699629126757</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3954613807714509</v>
+        <v>1.220026003379559</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.132000677658738</v>
+        <v>1.739781080210946</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1384045801986815</v>
+        <v>0.411125087524411</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03075984829850142</v>
+        <v>0.07289702170492518</v>
       </c>
       <c r="E11">
-        <v>0.1818620485996689</v>
+        <v>0.4260708342895825</v>
       </c>
       <c r="F11">
-        <v>0.6568484939169252</v>
+        <v>0.6976671675473796</v>
       </c>
       <c r="G11">
-        <v>0.002400302975595292</v>
+        <v>0.000771050830514943</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4424992919968833</v>
+        <v>0.1478062661197415</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9449145808511332</v>
+        <v>3.069563901263479</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4210108649351412</v>
+        <v>1.312602006049815</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.137798004057288</v>
+        <v>1.824214497179014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1416872338453317</v>
+        <v>0.4214964125171008</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03128076141008762</v>
+        <v>0.0744439637308929</v>
       </c>
       <c r="E12">
-        <v>0.1844476015598033</v>
+        <v>0.4379245337003752</v>
       </c>
       <c r="F12">
-        <v>0.6589142881366854</v>
+        <v>0.7123429262370706</v>
       </c>
       <c r="G12">
-        <v>0.002399637112894718</v>
+        <v>0.000769900292059626</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4405408886562165</v>
+        <v>0.1440296995071018</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9681525774278725</v>
+        <v>3.145423322660633</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4306939235938074</v>
+        <v>1.347871970420186</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.140237734796102</v>
+        <v>1.857164716318607</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1409803532945659</v>
+        <v>0.4192620955569026</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03116862898564676</v>
+        <v>0.07411076514009807</v>
       </c>
       <c r="E13">
-        <v>0.1838898194168763</v>
+        <v>0.4353633685986438</v>
       </c>
       <c r="F13">
-        <v>0.6584660997578453</v>
+        <v>0.7091680622415169</v>
       </c>
       <c r="G13">
-        <v>0.002399779948059126</v>
+        <v>0.0007701476909026115</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4409607207706907</v>
+        <v>0.1448375409045681</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9631492020990322</v>
+        <v>3.129077249652426</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4286081469615084</v>
+        <v>1.340265933139449</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.139701412158132</v>
+        <v>1.850023338992685</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1386746897819364</v>
+        <v>0.41197804711598</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03080272911634552</v>
+        <v>0.07302427353284457</v>
       </c>
       <c r="E14">
-        <v>0.182074341751175</v>
+        <v>0.4270423575080855</v>
       </c>
       <c r="F14">
-        <v>0.6570169691256211</v>
+        <v>0.6988682075705128</v>
       </c>
       <c r="G14">
-        <v>0.002400247937682515</v>
+        <v>0.0007709559982016992</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4423372965784278</v>
+        <v>0.1474930930086673</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9468269885616394</v>
+        <v>3.075801176498942</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4218073352497385</v>
+        <v>1.315499220991413</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.137993819243661</v>
+        <v>1.826905211058232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1372621220041879</v>
+        <v>0.4075182527249126</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03057844276850119</v>
+        <v>0.07235886692996019</v>
       </c>
       <c r="E15">
-        <v>0.1809650482888046</v>
+        <v>0.4219692856636428</v>
       </c>
       <c r="F15">
-        <v>0.6561389432701503</v>
+        <v>0.6926002363565544</v>
       </c>
       <c r="G15">
-        <v>0.00240053626584546</v>
+        <v>0.0007714522640244079</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4431861833156567</v>
+        <v>0.1491357104248499</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9368252458667428</v>
+        <v>3.043191961459172</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4176426863217699</v>
+        <v>1.300357663988692</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.136979722432329</v>
+        <v>1.812874714465408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1291630996721125</v>
+        <v>0.3819876091140486</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02929068568764137</v>
+        <v>0.06854692317293853</v>
       </c>
       <c r="E16">
-        <v>0.1746499075119274</v>
+        <v>0.3932452014837082</v>
       </c>
       <c r="F16">
-        <v>0.6512544509641884</v>
+        <v>0.6572866785654554</v>
       </c>
       <c r="G16">
-        <v>0.002402214217623121</v>
+        <v>0.0007743143568575514</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4481380372772374</v>
+        <v>0.1587892462653206</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8794500319102951</v>
+        <v>2.856660536132438</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3937927851972916</v>
+        <v>1.214004051616982</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.131655966419544</v>
+        <v>1.73439486519311</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1241910668260857</v>
+        <v>0.3663465958603211</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02849851493554212</v>
+        <v>0.06620918886098082</v>
       </c>
       <c r="E17">
-        <v>0.170812818313351</v>
+        <v>0.3759162738243518</v>
       </c>
       <c r="F17">
-        <v>0.6483890830760259</v>
+        <v>0.6361395511770382</v>
       </c>
       <c r="G17">
-        <v>0.002403266532606303</v>
+        <v>0.0007760869237806722</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4512536183944258</v>
+        <v>0.164920441174031</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8442001213927597</v>
+        <v>2.742502586232348</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3791759448198064</v>
+        <v>1.161374869391665</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.128824477104502</v>
+        <v>1.687892641992022</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1213300513082061</v>
+        <v>0.357357108771069</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02804209006218628</v>
+        <v>0.06486474234971951</v>
       </c>
       <c r="E18">
-        <v>0.168619349554227</v>
+        <v>0.3660497438704411</v>
       </c>
       <c r="F18">
-        <v>0.6467891153650385</v>
+        <v>0.6241569585621534</v>
       </c>
       <c r="G18">
-        <v>0.00240388024863609</v>
+        <v>0.000777112823260609</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4530741798711126</v>
+        <v>0.1685216815609936</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8239064907536715</v>
+        <v>2.676931058321486</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3707739839660746</v>
+        <v>1.131221234707382</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.127355283998412</v>
+        <v>1.661721174272373</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1203611552810173</v>
+        <v>0.3543145018252432</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02788741780405957</v>
+        <v>0.06440955113586</v>
       </c>
       <c r="E19">
-        <v>0.167878992809726</v>
+        <v>0.3627257594967546</v>
       </c>
       <c r="F19">
-        <v>0.646255651475073</v>
+        <v>0.6201300447955447</v>
       </c>
       <c r="G19">
-        <v>0.002404089495800446</v>
+        <v>0.0007774612874471364</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4536954941147187</v>
+        <v>0.1697536428700994</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8170322154291227</v>
+        <v>2.654743937536438</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3679301279811895</v>
+        <v>1.121030969386901</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.126885193798131</v>
+        <v>1.652956183394878</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1247204774559663</v>
+        <v>0.3680108818797976</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02858292475976043</v>
+        <v>0.06645802569804005</v>
       </c>
       <c r="E20">
-        <v>0.1712198813432479</v>
+        <v>0.3777504045897189</v>
       </c>
       <c r="F20">
-        <v>0.6486891250426368</v>
+        <v>0.6383717973301373</v>
       </c>
       <c r="G20">
-        <v>0.002403153637569476</v>
+        <v>0.0007758975766742591</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4509190029501848</v>
+        <v>0.1642599835162377</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8479544890654154</v>
+        <v>2.754645425391288</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3807313882120411</v>
+        <v>1.166964980678308</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.129109390344524</v>
+        <v>1.692782709499596</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1393519782580199</v>
+        <v>0.4141171477772616</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03091023661444581</v>
+        <v>0.07334338066564783</v>
       </c>
       <c r="E21">
-        <v>0.1826070202347481</v>
+        <v>0.429481441392376</v>
       </c>
       <c r="F21">
-        <v>0.6574406111502498</v>
+        <v>0.7018849278720012</v>
       </c>
       <c r="G21">
-        <v>0.002400110129600129</v>
+        <v>0.0007707183394171021</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4419317760842079</v>
+        <v>0.1467097430388558</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9516220361257126</v>
+        <v>3.091444598269106</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4238046808234657</v>
+        <v>1.322767749564704</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.138488741071143</v>
+        <v>1.83366829887666</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.148902060151741</v>
+        <v>0.4443324080357058</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03242403933091964</v>
+        <v>0.07784752657781269</v>
       </c>
       <c r="E22">
-        <v>0.1901715226250289</v>
+        <v>0.4643366228825556</v>
       </c>
       <c r="F22">
-        <v>0.663590088656477</v>
+        <v>0.7452038415519269</v>
       </c>
       <c r="G22">
-        <v>0.002398195869796474</v>
+        <v>0.0007673856306264357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4363129084294517</v>
+        <v>0.1359507370020934</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.019200385136571</v>
+        <v>3.312602074186685</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4520023308373311</v>
+        <v>1.425854504205446</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.146043664732616</v>
+        <v>1.931487417645343</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1438062114484353</v>
+        <v>0.4281973471395162</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0316167656452393</v>
+        <v>0.07544305582987931</v>
       </c>
       <c r="E23">
-        <v>0.1861229171435212</v>
+        <v>0.4456303747606114</v>
       </c>
       <c r="F23">
-        <v>0.6602685952273788</v>
+        <v>0.7219079733011711</v>
       </c>
       <c r="G23">
-        <v>0.002399210717768048</v>
+        <v>0.0007691598080061306</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.43928846654988</v>
+        <v>0.1416256557807971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9831488347811899</v>
+        <v>3.194458465705793</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4369484385413074</v>
+        <v>1.370708767603389</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.141880808644743</v>
+        <v>1.878722642878557</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1244811387674645</v>
+        <v>0.367258449868558</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02854476617643087</v>
+        <v>0.06634552800134941</v>
       </c>
       <c r="E24">
-        <v>0.171035809157317</v>
+        <v>0.3769208963459647</v>
       </c>
       <c r="F24">
-        <v>0.6485533285277256</v>
+        <v>0.6373620553816295</v>
       </c>
       <c r="G24">
-        <v>0.002403204650279531</v>
+        <v>0.0007759831591669233</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4510701911039945</v>
+        <v>0.16455833915035</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8462572265465838</v>
+        <v>2.749155465441419</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3800281677251931</v>
+        <v>1.164437371049658</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.128980086880517</v>
+        <v>1.690570162150806</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1035895559161162</v>
+        <v>0.3017755761061238</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02520105454286181</v>
+        <v>0.05653700373731851</v>
       </c>
       <c r="E25">
-        <v>0.1552777409922541</v>
+        <v>0.3065816086855406</v>
       </c>
       <c r="F25">
-        <v>0.6377551639616712</v>
+        <v>0.552974648452512</v>
       </c>
       <c r="G25">
-        <v>0.002407836161884142</v>
+        <v>0.0007835888628144549</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4648704089368731</v>
+        <v>0.1921295698881424</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6978817435965254</v>
+        <v>2.27211099063328</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3188313266407121</v>
+        <v>0.9463198526626257</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.121155482261599</v>
+        <v>1.509312675525081</v>
       </c>
     </row>
   </sheetData>
